--- a/result.xlsx
+++ b/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bakan\Documents\GitHub\EMG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bakan\Documents\GitHub\sigpro\sigpro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D146B182-B395-4E58-865F-0E1A63E74D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE40F69-22FB-4057-8EF5-8242BC26D278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8064" yWindow="3660" windowWidth="17280" windowHeight="8964" xr2:uid="{BA98F3B8-333E-41BA-9319-EB8B92F7EBF5}"/>
+    <workbookView xWindow="3432" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{BA98F3B8-333E-41BA-9319-EB8B92F7EBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>first</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>comp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>second</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -52,6 +48,40 @@
   </si>
   <si>
     <t>forth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
+    <t>conp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LLGMN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>識別率</t>
+    <rPh sb="0" eb="2">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -59,6 +89,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -92,17 +126,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,87 +708,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F163FD-3229-4C60-96FF-7F36A5E413A6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0.56240000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="11"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.80330000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C2">
+      <c r="D5" s="7">
+        <v>0.52045750000000002</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.52033960000000001</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.7621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.48016320000000001</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.47998960000000002</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.65213019999999999</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.66242570000000001</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.38629999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.73794899999999997</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.73794899999999997</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.50570000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="D9" s="7">
+        <v>0.55621149999999997</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.55629830000000002</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="I9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.63212520000000005</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.63246000000000002</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.59670000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>0.73794899999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.4970328</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.4970328</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.58070980000000005</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.58023820000000004</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.4970328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="D13" s="7">
+        <v>0.63363190000000003</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.63363190000000003</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.81436750000000002</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.8150963</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.81436750000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="J14" s="20">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.75179810000000002</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.74814290000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.52045750000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>4</v>
+      <c r="D16" s="9">
+        <v>0.56393780000000004</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.56376420000000005</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>